--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="MCQQBHvBvpHCzT+7hHRDf1IQKgkSMbHvDLmNk0tq890="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="DzbdJsQxEMYknQE2vKyAwLD2XUERPNELGg4Rw8vaCmc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="421">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1256,6 +1256,30 @@
   </si>
   <si>
     <t>에너지 사업영역 신사업 기획</t>
+  </si>
+  <si>
+    <t>기술전략</t>
+  </si>
+  <si>
+    <t>디지털 회로설계, 개발기획</t>
+  </si>
+  <si>
+    <t>회로이론</t>
+  </si>
+  <si>
+    <t>안테나공학, 디스플레이공학, 이동통신</t>
+  </si>
+  <si>
+    <t>고급딥러닝, 빅데이터프로그래밍</t>
+  </si>
+  <si>
+    <t>자율주행 시스템 설계</t>
+  </si>
+  <si>
+    <t>로보틱스 하드웨어</t>
+  </si>
+  <si>
+    <t>컴퓨터구조, 컴퓨터네트워크, 디지털통신, 디지털신호처리, 자동제어, 마이크로프로세서, 임베디드시스템설계, 영상신호처리</t>
   </si>
 </sst>
 </file>
@@ -3959,8 +3983,79 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2">
+        <v>45533.94543112269</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2007.0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2">
+        <v>45537.560006643514</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2017.0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>

--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="DzbdJsQxEMYknQE2vKyAwLD2XUERPNELGg4Rw8vaCmc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="n8+4AfAGcBrkYGPcCM595ig7h3dTdeqFIvVe+LjNb4Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="444">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1280,6 +1280,75 @@
   </si>
   <si>
     <t>컴퓨터구조, 컴퓨터네트워크, 디지털통신, 디지털신호처리, 자동제어, 마이크로프로세서, 임베디드시스템설계, 영상신호처리</t>
+  </si>
+  <si>
+    <t>전자공학, 컴퓨터공학</t>
+  </si>
+  <si>
+    <t>박종선 교수님</t>
+  </si>
+  <si>
+    <t>뉴로모픽 인공지능 가속기</t>
+  </si>
+  <si>
+    <t>한국전자기술연구원</t>
+  </si>
+  <si>
+    <t>R&amp;D 일반사무직 해당없음</t>
+  </si>
+  <si>
+    <t>인공지능 반도체 하드웨어 설계</t>
+  </si>
+  <si>
+    <t>디지털 회로설계, 반도체 회로설계, 머신러닝</t>
+  </si>
+  <si>
+    <t>미분방정식, 고급미분적분학, 선형대수, 미분적분학, 확률및랜덤변수, 객체지향프로그래밍및실습, 웹/파이선프로그래밍</t>
+  </si>
+  <si>
+    <t>객체지향프로그래밍, 컴퓨터구조, 자료구조, 운영체제, 컴퓨터네트워크, 알고리즘, 논리회로, 웹/파이선프로그래밍, 기계학습</t>
+  </si>
+  <si>
+    <t>컴퓨터구조, 컴퓨터네트워크, 자료구조및알고리즘, 반도체공학, 디지털통신, 디지털신호처리, DSP실험, 디지털회로설계및언어, 디지털집적회로모델링실험, 마이크로프로세서, 임베디드시스템설계, 머신러닝개론, 영상신호처리, VLSI설계, SoC설계, 반도체집적회로</t>
+  </si>
+  <si>
+    <t>인공지능프로그래밍, 고급딥러닝, 컴파일러, 프로그래밍언어론, 딥러닝, 영상처리, 신호와시스템</t>
+  </si>
+  <si>
+    <t>EXE HS OPS</t>
+  </si>
+  <si>
+    <t>CS engineer</t>
+  </si>
+  <si>
+    <t>반도체 패키지, 반도체 설비.장비</t>
+  </si>
+  <si>
+    <t>물리전자, 신호와시스템</t>
+  </si>
+  <si>
+    <t>정연모 교수님</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>한국지식재산보호원</t>
+  </si>
+  <si>
+    <t>일반사무직</t>
+  </si>
+  <si>
+    <t>해외센터 설립 및 운영</t>
+  </si>
+  <si>
+    <t>한국특허기술진흥원&lt;PCT:11-17&gt;,세방체인&lt;무역:17-19&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매본부 </t>
+  </si>
+  <si>
+    <t>신사업구매(로보틱스 외), 구매PM, 기획</t>
   </si>
 </sst>
 </file>
@@ -4056,10 +4125,170 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2">
+        <v>45541.66839162037</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
+        <v>45542.46130657407</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
+        <v>45542.5397212963</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2003.0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="2">
+        <v>45544.378991273144</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
     <row r="64" ht="15.75" customHeight="1"/>
